--- a/testdata/testcases.xlsx
+++ b/testdata/testcases.xlsx
@@ -1,112 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradnya.Gund\Python\EYDET_Automation Framework - Copy\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F42ECD-A5D8-451F-AC94-813DD0DA2BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestCase" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>Sr No</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>test_Add_AWB_TC1</t>
-  </si>
-  <si>
-    <t>Verify that, system is allowing to create PP AWB</t>
-  </si>
-  <si>
-    <t>AWB should be get created successfully</t>
-  </si>
-  <si>
-    <t>test_Add_AWB_TC2</t>
-  </si>
-  <si>
-    <t>Verify that, system is allowing to create CC AWB</t>
-  </si>
-  <si>
-    <t>test_Add_AWB_TC3</t>
-  </si>
-  <si>
-    <t>Verify that, system is allowing to create AWB with invalid agent code</t>
-  </si>
-  <si>
-    <t>System should not allow to create AWB. It should display the exception.</t>
-  </si>
-  <si>
-    <t>test_Add_AWB_TC4</t>
-  </si>
-  <si>
-    <t>Verify that, system is allowing to create AWB by  keeping some of the AWB field as blank.</t>
-  </si>
-  <si>
-    <t>test_View_AWB_TC1</t>
-  </si>
-  <si>
-    <t>Verify that, system is displaying AWB in the View AWB screen  which is not present in the FLX CRA</t>
-  </si>
-  <si>
-    <t>AWB should not be displayed.</t>
-  </si>
-  <si>
-    <t>test_View_AWB_TC2</t>
-  </si>
-  <si>
-    <t>Verify that, system is searching AWB with selecting dropdown  like flown export billing</t>
-  </si>
-  <si>
-    <t>AWB should be displayed if it is present.</t>
-  </si>
-  <si>
-    <t>test_View_AWB_TC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that, system is navigating through the links </t>
-  </si>
-  <si>
-    <t>AWB should be displayed and all the links should be clickable and display the  respective data's.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -140,33 +61,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -454,132 +434,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.26953125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col width="8.7265625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="27.90625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="35.08984375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="38.26953125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.7265625" customWidth="1" style="1" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" ht="29" customFormat="1" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Sr No</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Execution Date1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Actual Result1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Status1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Execution Date2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Actual Result2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Status2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Execution Date3</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Actual Result3</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Status3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="29" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>test_Add_AWB_TC1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Verify that, system is allowing to create PP AWB</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>AWB should be get created successfully</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12-Nov-2025 11:25:18 AM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Timeout 30000ms exceeded.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12-Nov-2025 11:28:05 AM</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>AWB not saved. It is having exceptions, please check.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>12-Nov-2025 11:34:47 AM</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="29" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>test_Add_AWB_TC2</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Verify that, system is allowing to create CC AWB</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>AWB should be get created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="29" customHeight="1">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>test_Add_AWB_TC3</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Verify that, system is allowing to create AWB with invalid agent code</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>System should not allow to create AWB. It should display the exception.</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="5" ht="29" customHeight="1">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>test_Add_AWB_TC4</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Verify that, system is allowing to create AWB by  keeping some of the AWB field as blank.</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>System should not allow to create AWB. It should display the exception.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="43.5" customHeight="1">
+      <c r="A6" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>test_View_AWB_TC1</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Verify that, system is displaying AWB in the View AWB screen  which is not present in the FLX CRA</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>AWB should not be displayed.</t>
+        </is>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="7" ht="43.5" customHeight="1">
+      <c r="A7" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>test_View_AWB_TC2</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Verify that, system is searching AWB with selecting dropdown  like flown export billing</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>AWB should be displayed if it is present.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="58" customHeight="1">
+      <c r="A8" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>test_View_AWB_TC3</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Verify that, system is navigating through the links </t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>AWB should be displayed and all the links should be clickable and display the  respective data's.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/testdata/testcases.xlsx
+++ b/testdata/testcases.xlsx
@@ -439,10 +439,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -490,36 +490,6 @@
           <t>Status1</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Execution Date2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Actual Result2</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Status2</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Execution Date3</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Actual Result3</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Status3</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="29" customHeight="1">
       <c r="A2" s="3" t="n">
@@ -542,41 +512,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-Nov-2025 11:25:18 AM</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Timeout 30000ms exceeded.</t>
-        </is>
-      </c>
+          <t>18-Nov-2025 02:19:03 PM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>12-Nov-2025 11:28:05 AM</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>AWB not saved. It is having exceptions, please check.</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>12-Nov-2025 11:34:47 AM</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -601,6 +541,17 @@
           <t>AWB should be get created successfully</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18-Nov-2025 02:19:03 PM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="29" customHeight="1">
       <c r="A4" s="3" t="n">
@@ -621,6 +572,17 @@
           <t>System should not allow to create AWB. It should display the exception.</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>18-Nov-2025 02:19:03 PM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="29" customHeight="1">
       <c r="A5" s="3" t="n">
@@ -641,6 +603,17 @@
           <t>System should not allow to create AWB. It should display the exception.</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18-Nov-2025 02:19:03 PM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="3" t="n">
@@ -661,6 +634,17 @@
           <t>AWB should not be displayed.</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>18-Nov-2025 02:19:03 PM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="3" t="n">
@@ -681,6 +665,17 @@
           <t>AWB should be displayed if it is present.</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18-Nov-2025 02:19:03 PM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="58" customHeight="1">
       <c r="A8" s="3" t="n">
@@ -699,6 +694,17 @@
       <c r="D8" s="2" t="inlineStr">
         <is>
           <t>AWB should be displayed and all the links should be clickable and display the  respective data's.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18-Nov-2025 02:19:03 PM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/testdata/testcases.xlsx
+++ b/testdata/testcases.xlsx
@@ -1,33 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradnya.Gund\Python\EYDET_Automation Framework\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8B3C0-48D9-41DD-9E3D-68F4A6799B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TestCase" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+  <si>
+    <t>Sr No</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Execution Date1</t>
+  </si>
+  <si>
+    <t>Actual Result1</t>
+  </si>
+  <si>
+    <t>Status1</t>
+  </si>
+  <si>
+    <t>test_Add_AWB_TC1</t>
+  </si>
+  <si>
+    <t>Verify that, system is allowing to create PP AWB</t>
+  </si>
+  <si>
+    <t>AWB should be get created successfully</t>
+  </si>
+  <si>
+    <t>19-Nov-2025 01:51:57 PM</t>
+  </si>
+  <si>
+    <t>AWB 057 97024863 did not validate successfully.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>test_Add_AWB_TC2</t>
+  </si>
+  <si>
+    <t>Verify that, system is allowing to create CC AWB</t>
+  </si>
+  <si>
+    <t>AWB 057 97024874 did not validate successfully.</t>
+  </si>
+  <si>
+    <t>test_Add_AWB_TC3</t>
+  </si>
+  <si>
+    <t>Verify that, system is allowing to create AWB with invalid agent code</t>
+  </si>
+  <si>
+    <t>System should not allow to create AWB. It should display the exception.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>test_Add_AWB_TC4</t>
+  </si>
+  <si>
+    <t>Verify that, system is allowing to create AWB by  keeping some of the AWB field as blank.</t>
+  </si>
+  <si>
+    <t>test_View_AWB_TC1</t>
+  </si>
+  <si>
+    <t>Verify that, system is displaying AWB in the View AWB screen  which is not present in the FLX CRA</t>
+  </si>
+  <si>
+    <t>AWB should not be displayed.</t>
+  </si>
+  <si>
+    <t>test_View_AWB_TC2</t>
+  </si>
+  <si>
+    <t>Verify that, system is searching AWB with selecting dropdown  like flown export billing</t>
+  </si>
+  <si>
+    <t>AWB should be displayed if it is present.</t>
+  </si>
+  <si>
+    <t>test_View_AWB_TC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that, system is navigating through the links </t>
+  </si>
+  <si>
+    <t>AWB should be displayed and all the links should be clickable and display the  respective data's.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -61,92 +164,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -434,278 +478,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="8.7265625" customWidth="1" style="4" min="1" max="1"/>
-    <col width="27.90625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="35.08984375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="38.26953125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="8.7265625" customWidth="1" style="1" min="5" max="16384"/>
+    <col min="1" max="1" width="8.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.08984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customFormat="1" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Sr No</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Test Case ID</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Expected Result</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Execution Date1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Actual Result1</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Status1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="29" customHeight="1">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>test_Add_AWB_TC1</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Verify that, system is allowing to create PP AWB</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>AWB should be get created successfully</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>18-Nov-2025 02:19:03 PM</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="29" customHeight="1">
-      <c r="A3" s="3" t="n">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>test_Add_AWB_TC2</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Verify that, system is allowing to create CC AWB</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>AWB should be get created successfully</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>18-Nov-2025 02:19:03 PM</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="29" customHeight="1">
-      <c r="A4" s="3" t="n">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>test_Add_AWB_TC3</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Verify that, system is allowing to create AWB with invalid agent code</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>System should not allow to create AWB. It should display the exception.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18-Nov-2025 02:19:03 PM</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="29" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>test_Add_AWB_TC4</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Verify that, system is allowing to create AWB by  keeping some of the AWB field as blank.</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>System should not allow to create AWB. It should display the exception.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>18-Nov-2025 02:19:03 PM</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="43.5" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>test_View_AWB_TC1</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Verify that, system is displaying AWB in the View AWB screen  which is not present in the FLX CRA</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>AWB should not be displayed.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>18-Nov-2025 02:19:03 PM</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="43.5" customHeight="1">
-      <c r="A7" s="3" t="n">
+    </row>
+    <row r="2" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>test_View_AWB_TC2</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Verify that, system is searching AWB with selecting dropdown  like flown export billing</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>AWB should be displayed if it is present.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>18-Nov-2025 02:19:03 PM</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="58" customHeight="1">
-      <c r="A8" s="3" t="n">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>test_View_AWB_TC3</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Verify that, system is navigating through the links </t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>AWB should be displayed and all the links should be clickable and display the  respective data's.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>18-Nov-2025 02:19:03 PM</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/testcases.xlsx
+++ b/testdata/testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradnya.Gund\Python\EYDET_Automation Framework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB8B3C0-48D9-41DD-9E3D-68F4A6799B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BFE0D-F917-449F-BED9-F36463A7E7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Sr No</t>
   </si>
@@ -52,10 +52,10 @@
     <t>AWB should be get created successfully</t>
   </si>
   <si>
-    <t>19-Nov-2025 01:51:57 PM</t>
-  </si>
-  <si>
-    <t>AWB 057 97024863 did not validate successfully.</t>
+    <t>21-Nov-2025 03:42:59 PM</t>
+  </si>
+  <si>
+    <t>AWB 057 97024885 did not validate successfully.</t>
   </si>
   <si>
     <t>Fail</t>
@@ -67,7 +67,7 @@
     <t>Verify that, system is allowing to create CC AWB</t>
   </si>
   <si>
-    <t>AWB 057 97024874 did not validate successfully.</t>
+    <t>AWB 057 97024896 did not validate successfully.</t>
   </si>
   <si>
     <t>test_Add_AWB_TC3</t>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>AWB should not be displayed.</t>
+  </si>
+  <si>
+    <t>Expected '0 records found' but got ' 1 records found'</t>
   </si>
   <si>
     <t>test_View_AWB_TC2</t>
@@ -481,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,9 +494,10 @@
     <col min="2" max="2" width="27.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.08984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="22.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -623,9 +627,11 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -633,13 +639,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -654,13 +660,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>

--- a/testdata/testcases.xlsx
+++ b/testdata/testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradnya.Gund\Python\EYDET_Automation Framework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BFE0D-F917-449F-BED9-F36463A7E7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1738DCE-2417-4FDC-A45B-8173C5011355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Sr No</t>
   </si>
@@ -43,6 +43,15 @@
     <t>Status1</t>
   </si>
   <si>
+    <t>Execution Date2</t>
+  </si>
+  <si>
+    <t>Actual Result2</t>
+  </si>
+  <si>
+    <t>Status2</t>
+  </si>
+  <si>
     <t>test_Add_AWB_TC1</t>
   </si>
   <si>
@@ -61,6 +70,9 @@
     <t>Fail</t>
   </si>
   <si>
+    <t>24-Nov-2025 11:30:05 AM</t>
+  </si>
+  <si>
     <t>test_Add_AWB_TC2</t>
   </si>
   <si>
@@ -68,6 +80,9 @@
   </si>
   <si>
     <t>AWB 057 97024896 did not validate successfully.</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
   <si>
     <t>test_Add_AWB_TC3</t>
@@ -482,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,12 +510,14 @@
     <col min="3" max="3" width="35.08984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="65.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.08984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.90625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="8.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -522,158 +539,218 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>19</v>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5"/>
+        <v>13</v>
+      </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7"/>
+        <v>13</v>
+      </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8"/>
+        <v>13</v>
+      </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
